--- a/data/appointment.xlsx
+++ b/data/appointment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\box\JY\blogging\cover_letter\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjlin\Documents\BJL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD95FC96-C626-44E4-8A03-BC99D53F551A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C46F3C-2B30-45A3-9939-4F1DF1DA6CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="2540" windowWidth="14400" windowHeight="8260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3308" yWindow="3308" windowWidth="18225" windowHeight="11332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>what</t>
   </si>
@@ -42,46 +42,49 @@
     <t>why</t>
   </si>
   <si>
-    <t>Assistant Professor</t>
-  </si>
-  <si>
-    <t>School of Information Sciences</t>
-  </si>
-  <si>
-    <t>University of Illinois at Urbana-Champaign</t>
-  </si>
-  <si>
-    <t>Faculty Affiliate</t>
-  </si>
-  <si>
-    <t>Illinois Informatics Institute</t>
-  </si>
-  <si>
-    <t>Sep. 2021 - Present</t>
-  </si>
-  <si>
-    <t>Dec. 2021 - Present</t>
-  </si>
-  <si>
-    <t>National Center for Supercomputing Applications</t>
-  </si>
-  <si>
-    <t>Software Engineer Intern</t>
-  </si>
-  <si>
-    <t>RStudio</t>
-  </si>
-  <si>
-    <t>Boston, MA</t>
-  </si>
-  <si>
-    <t>May. 2020 - Aug. 2020</t>
-  </si>
-  <si>
-    <t>Jan. 2022 - Present</t>
-  </si>
-  <si>
-    <t>IDEA (Inclusion, Diversity, Equity, and Access) Institute</t>
+    <t>Assistant Professor of Geology</t>
+  </si>
+  <si>
+    <t>August 2021 - Present</t>
+  </si>
+  <si>
+    <t>Department of Earth Sciences</t>
+  </si>
+  <si>
+    <t>University of South Alabama</t>
+  </si>
+  <si>
+    <t>Post-doctoral fellow</t>
+  </si>
+  <si>
+    <t>October 2019 - July 2021</t>
+  </si>
+  <si>
+    <t>University of Wisconsin - Madison</t>
+  </si>
+  <si>
+    <t>SIMS data collection and management</t>
+  </si>
+  <si>
+    <t>WiscSIMS Laboratory, Department of Geosciences</t>
+  </si>
+  <si>
+    <t>Lecturer</t>
+  </si>
+  <si>
+    <t>August 2020 - December 2020</t>
+  </si>
+  <si>
+    <t>Department of Geosciences</t>
+  </si>
+  <si>
+    <t>August 2017 - October 2019</t>
+  </si>
+  <si>
+    <t>Ubben Postdoctoral Fellow, Earth and Planetary Science Department</t>
+  </si>
+  <si>
+    <t>Northwestern University</t>
   </si>
 </sst>
 </file>
@@ -400,13 +403,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,51 +434,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
@@ -476,21 +490,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
